--- a/excel/Machinery_Part/Section15.xlsx
+++ b/excel/Machinery_Part/Section15.xlsx
@@ -3446,7 +3446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX7"/>
+  <dimension ref="A1:CX8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7052,6 +7052,518 @@
         </is>
       </c>
       <c r="CX7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Air driven pump for M/E air cooler cleaning 1 set△1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CX8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -18683,227 +19195,227 @@
       </c>
       <c r="AW4" t="inlineStr">
         <is>
+          <t>(+)△1 &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="BU4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="BY4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CA4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CG4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
-        </is>
-      </c>
       <c r="CO4" t="inlineStr">
         <is>
-          <t>(+)15.7 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
+          <t>(+)( &amp; (+)Owner &amp; (+)supply &amp; (+)) &amp; (+)△4 &amp; (-)M15 &amp; (-)- &amp; (-)3e</t>
         </is>
       </c>
       <c r="CP4" t="inlineStr">
@@ -18963,7 +19475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX29"/>
+  <dimension ref="A1:CX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33155,7 +33667,7 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>Universal machine tool 
-Drilling capacity φ21mm.</t>
+Drilling capacity φ21mm△4.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -33185,7 +33697,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -33320,7 +33832,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>(-)Drilling &amp; (-)capacity &amp; (-)φ21mm</t>
+          <t>(-)Drilling &amp; (-)capacity &amp; (-)φ21mm△4</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -33460,12 +33972,12 @@
       </c>
       <c r="BJ28" t="inlineStr">
         <is>
-          <t>(-)Drilling &amp; (-)capacity &amp; (-)φ21mm</t>
+          <t>(-)Drilling &amp; (-)capacity &amp; (-)φ21mm△4</t>
         </is>
       </c>
       <c r="BK28" t="inlineStr">
         <is>
-          <t>(-)Drilling &amp; (-)capacity &amp; (-)φ21mm</t>
+          <t>(-)Drilling &amp; (-)capacity &amp; (-)φ21mm△4</t>
         </is>
       </c>
       <c r="BL28" t="inlineStr">
@@ -33515,7 +34027,7 @@
       </c>
       <c r="BU28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)φ21mm &amp; (-)φ21mm△4</t>
         </is>
       </c>
       <c r="BV28" t="inlineStr">
@@ -33660,518 +34172,1030 @@
       </c>
       <c r="CX28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)φ21mm &amp; (-)φ21mm△4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Trolley(for propeller shaft)                          2△2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CN29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CR29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CX29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>in W/S × 1 
    Flame arrestor for Oxy.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>(+)Item &amp; (+)No &amp; (+)set &amp; (+)Remarks &amp; (-)W/S &amp; (-)× &amp; (-)1 &amp; (-)Flame &amp; (-)arrestor &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>(+)Item &amp; (+)No &amp; (+)set &amp; (+)Remarks &amp; (-)W/S &amp; (-)× &amp; (-)1 &amp; (-)Flame &amp; (-)arrestor &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AM30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AR30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>(+)Item &amp; (+)No &amp; (+)set &amp; (+)Remarks &amp; (-)W/S &amp; (-)× &amp; (-)1 &amp; (-)Flame &amp; (-)arrestor &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AV29" t="inlineStr">
+      <c r="AV30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AW29" t="inlineStr">
+      <c r="AW30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AX29" t="inlineStr">
+      <c r="AX30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AY29" t="inlineStr">
+      <c r="AY30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="AZ29" t="inlineStr">
+      <c r="AZ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BA29" t="inlineStr">
+      <c r="BA30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BB29" t="inlineStr">
+      <c r="BB30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BC29" t="inlineStr">
+      <c r="BC30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BD29" t="inlineStr">
+      <c r="BD30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BE29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF29" t="inlineStr">
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BG29" t="inlineStr">
+      <c r="BG30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BH29" t="inlineStr">
+      <c r="BH30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BI29" t="inlineStr">
+      <c r="BI30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BJ29" t="inlineStr">
+      <c r="BJ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BK29" t="inlineStr">
+      <c r="BK30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BL29" t="inlineStr">
+      <c r="BL30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BM29" t="inlineStr">
+      <c r="BM30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BN29" t="inlineStr">
+      <c r="BN30" t="inlineStr">
         <is>
           <t>(+)Item &amp; (+)No &amp; (+)set &amp; (+)Remarks &amp; (-)W/S &amp; (-)× &amp; (-)1 &amp; (-)Flame &amp; (-)arrestor &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BO29" t="inlineStr">
+      <c r="BO30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BP29" t="inlineStr">
+      <c r="BP30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BQ29" t="inlineStr">
+      <c r="BQ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BR29" t="inlineStr">
+      <c r="BR30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BS29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BT29" t="inlineStr">
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BU29" t="inlineStr">
+      <c r="BU30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BV29" t="inlineStr">
+      <c r="BV30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BW29" t="inlineStr">
+      <c r="BW30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BX29" t="inlineStr">
+      <c r="BX30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BY29" t="inlineStr">
+      <c r="BY30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="BZ29" t="inlineStr">
+      <c r="BZ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CA29" t="inlineStr">
+      <c r="CA30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CB29" t="inlineStr">
+      <c r="CB30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CC29" t="inlineStr">
+      <c r="CC30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CD29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CE29" t="inlineStr">
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CF29" t="inlineStr">
+      <c r="CF30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CG29" t="inlineStr">
+      <c r="CG30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CH29" t="inlineStr">
+      <c r="CH30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CI29" t="inlineStr">
+      <c r="CI30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CJ29" t="inlineStr">
+      <c r="CJ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CK29" t="inlineStr">
+      <c r="CK30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CL29" t="inlineStr">
+      <c r="CL30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CM29" t="inlineStr">
+      <c r="CM30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CN29" t="inlineStr">
+      <c r="CN30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CO29" t="inlineStr">
+      <c r="CO30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CP29" t="inlineStr">
+      <c r="CP30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CQ29" t="inlineStr">
+      <c r="CQ30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CR29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CS29" t="inlineStr">
+      <c r="CR30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CT29" t="inlineStr">
+      <c r="CT30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CU29" t="inlineStr">
+      <c r="CU30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CV29" t="inlineStr">
+      <c r="CV30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CW29" t="inlineStr">
+      <c r="CW30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
       </c>
-      <c r="CX29" t="inlineStr">
+      <c r="CX30" t="inlineStr">
         <is>
           <t>(+)Oxygen &amp; (+)B &amp; (-)W/S &amp; (-)Oxy</t>
         </is>
